--- a/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +803,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -843,7 +844,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1094,7 +1095,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,7 +1136,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1201,7 +1202,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1386,7 +1387,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1427,7 +1428,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1460,7 +1461,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1493,7 +1494,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1678,7 +1679,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1719,7 +1720,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1752,7 +1753,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1785,7 +1786,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1818,7 +1819,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1970,7 +1971,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2011,7 +2012,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2044,7 +2045,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2077,7 +2078,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2143,7 +2144,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2176,7 +2177,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2262,7 +2263,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2303,7 +2304,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2336,7 +2337,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2369,7 +2370,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2435,7 +2436,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2468,7 +2469,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2554,7 +2555,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2595,7 +2596,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2628,7 +2629,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2661,7 +2662,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2694,7 +2695,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2727,7 +2728,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2793,7 +2794,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2846,7 +2847,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2887,7 +2888,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2920,7 +2921,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2953,7 +2954,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2986,7 +2987,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3019,7 +3020,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3052,7 +3053,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3085,7 +3086,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3138,7 +3139,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C73" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -803,7 +802,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -844,7 +843,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -877,7 +876,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -910,7 +909,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -943,7 +942,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -976,7 +975,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1009,7 +1008,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1042,7 +1041,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1095,7 +1094,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1136,7 +1135,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1169,7 +1168,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1202,7 +1201,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1235,7 +1234,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1268,7 +1267,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1301,7 +1300,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1334,7 +1333,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1387,7 +1386,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1428,7 +1427,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1461,7 +1460,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1494,7 +1493,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1527,7 +1526,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1560,7 +1559,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1593,7 +1592,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1626,7 +1625,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1679,7 +1678,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1720,7 +1719,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1753,7 +1752,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1786,7 +1785,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1819,7 +1818,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1852,7 +1851,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1885,7 +1884,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1918,7 +1917,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1971,7 +1970,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2012,7 +2011,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2045,7 +2044,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2078,7 +2077,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2111,7 +2110,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2144,7 +2143,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2177,7 +2176,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2210,7 +2209,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2263,7 +2262,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2304,7 +2303,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2337,7 +2336,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2370,7 +2369,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2403,7 +2402,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2436,7 +2435,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2469,7 +2468,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2502,7 +2501,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2555,7 +2554,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2596,7 +2595,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2629,7 +2628,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2662,7 +2661,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2695,7 +2694,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2728,7 +2727,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2761,7 +2760,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2794,7 +2793,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2847,7 +2846,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2888,7 +2887,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43642</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2921,7 +2920,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2954,7 +2953,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2987,7 +2986,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3020,7 +3019,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43741</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3053,7 +3052,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3086,7 +3085,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3139,7 +3138,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C73" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +803,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -843,7 +844,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -975,7 +976,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1008,7 +1009,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1041,7 +1042,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1094,7 +1095,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds100CvBennett</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1135,7 +1136,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1201,7 +1202,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1234,7 +1235,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1267,7 +1268,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1300,7 +1301,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1386,7 +1387,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds100CvBennett</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1427,7 +1428,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1460,7 +1461,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1493,7 +1494,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1559,7 +1560,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1592,7 +1593,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1678,7 +1679,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1719,7 +1720,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1752,7 +1753,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1785,7 +1786,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1818,7 +1819,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1851,7 +1852,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1884,7 +1885,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1917,7 +1918,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1970,7 +1971,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds175CvBennett</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2011,7 +2012,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2044,7 +2045,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2077,7 +2078,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2143,7 +2144,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2176,7 +2177,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2262,7 +2263,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds175CvBennett</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2303,7 +2304,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2336,7 +2337,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2369,7 +2370,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2435,7 +2436,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2468,7 +2469,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2554,7 +2555,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2595,7 +2596,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2628,7 +2629,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2661,7 +2662,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2694,7 +2695,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2727,7 +2728,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2793,7 +2794,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2846,7 +2847,7 @@
           <t>FAR HYC W19-03-1GrazedGS16Seeds250CvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2887,7 +2888,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43642</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2920,7 +2921,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43677</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2953,7 +2954,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2986,7 +2987,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3019,7 +3020,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43741</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3052,7 +3053,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3085,7 +3086,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3138,7 +3139,7 @@
           <t>FAR HYC W19-03-1GrazedGS16 30 40NSeeds250CvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C73" t="inlineStr">
